--- a/app项目/测试用例.xlsx
+++ b/app项目/测试用例.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="发布心情" sheetId="1" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="208">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +816,298 @@
   </si>
   <si>
     <t>xcb-fbxq-031</t>
+  </si>
+  <si>
+    <t>XQY-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像可以正常显示且能点开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XQY-002</t>
+  </si>
+  <si>
+    <t>XQY-003</t>
+  </si>
+  <si>
+    <t>XQY-004</t>
+  </si>
+  <si>
+    <t>XQY-005</t>
+  </si>
+  <si>
+    <t>XQY-006</t>
+  </si>
+  <si>
+    <t>XQY-007</t>
+  </si>
+  <si>
+    <t>XQY-008</t>
+  </si>
+  <si>
+    <t>XQY-009</t>
+  </si>
+  <si>
+    <t>详情页里，用户名为长字符是否能够完整显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，用户头像是否能够正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名可以完整显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，发布的时间能否正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常的显示发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，发布的文字描述能否正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，发布的图片能否正常的显示，是否可以点开并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，绑定的驾校是否能够正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常的显示绑定的驾校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，发布的图片可以正常的显示，可以点开并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常的显示发布的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞用户的头像列表可以正常的显示，
+且不会出现列表折叠的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，点赞用户数没有超过列表折叠上限，
+是否正常显示用户列表且不会出现列表折叠现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，点赞用户数超过列表折叠上限，
+是否正常显示用户列表且会出现列表折叠现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，评论条数超过列表折叠上限，
+是否正常显示用户列表且会出现列表折叠现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞用户的头像列表可以正常的显示，
+且会出现列表折叠的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论可以正常的显示，
+且会出现评论列表折叠的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，评论条数没有超过列表折叠上限，
+是否正常显示用户列表且不会会出现列表折叠现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论可以正常的显示，
+且不会出现评论列表折叠的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，点赞总个数，评论总条数是否能够正常的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常显示评论总数，点赞总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看评论数、点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多条评论、点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详情页查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多条评论且评论数没有超过列表折叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多条评论且评论数超过列表折叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多个点赞且点赞数超过列表折叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看点赞列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多个点赞且点赞数没有超过列表折叠上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+发布的心情绑定过驾校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看绑定驾校是否显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+心情里添加过图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看心情添加过的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+心情里有文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看心情里的文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录且有网络
+发布过的心情
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录且有网络
+发布过的心情
+用户名长度为上限内最长字符
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+到详情页面中查看用用户名是否能够正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+用户头像为自己添加上传的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到详情页面里查看用户头像，是否能够正常显示，头像是否能点开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录且有网络
+发布过的心情
+有多条点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详情页面
+点击某一带点过赞的用户的头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击点赞列表的用户头像，
+能进入该用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页里，点击点赞列表的用户头像，
+是否能进入该用户主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录且有网络
+发布过的心情
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详情页面
+是否可以正常的点赞和取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>​详情页里， 可以进行点赞和
+取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>​详情页里， 是否可以进行点赞和取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1193,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2179,4 +2472,708 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="9" max="12" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>